--- a/Recursos/CompuertaAND.xlsx
+++ b/Recursos/CompuertaAND.xlsx
@@ -321,7 +321,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
